--- a/Jasper Files/data/delNP/delNP-50pod-20pol.xlsx
+++ b/Jasper Files/data/delNP/delNP-50pod-20pol.xlsx
@@ -516,28 +516,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.008281659334897995</v>
+        <v>0.02153209701646119</v>
       </c>
       <c r="C2">
-        <v>114050</v>
+        <v>91376</v>
       </c>
       <c r="D2">
-        <v>188378</v>
+        <v>157888</v>
       </c>
       <c r="E2">
-        <v>74328</v>
+        <v>66512</v>
       </c>
       <c r="F2">
-        <v>0.002793103456497192</v>
+        <v>0.008433151990175247</v>
       </c>
       <c r="G2">
-        <v>16011</v>
+        <v>18609</v>
       </c>
       <c r="H2">
-        <v>34736</v>
+        <v>37046</v>
       </c>
       <c r="I2">
-        <v>18725</v>
+        <v>18437</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -545,28 +545,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005360975861549377</v>
+        <v>0.03206778899766505</v>
       </c>
       <c r="C3">
-        <v>109278</v>
+        <v>210953</v>
       </c>
       <c r="D3">
-        <v>183862</v>
+        <v>360693</v>
       </c>
       <c r="E3">
-        <v>74584</v>
+        <v>149740</v>
       </c>
       <c r="F3">
-        <v>0.002423487603664398</v>
+        <v>0.005953188985586166</v>
       </c>
       <c r="G3">
-        <v>15539</v>
+        <v>15257</v>
       </c>
       <c r="H3">
-        <v>34119</v>
+        <v>33982</v>
       </c>
       <c r="I3">
-        <v>18580</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -574,28 +574,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01862601935863495</v>
+        <v>0.007733006030321121</v>
       </c>
       <c r="C4">
-        <v>234874</v>
+        <v>101594</v>
       </c>
       <c r="D4">
-        <v>327081</v>
+        <v>170442</v>
       </c>
       <c r="E4">
-        <v>92207</v>
+        <v>68848</v>
       </c>
       <c r="F4">
-        <v>0.003359545022249222</v>
+        <v>0.01075371995102614</v>
       </c>
       <c r="G4">
-        <v>15572</v>
+        <v>15641</v>
       </c>
       <c r="H4">
-        <v>34152</v>
+        <v>34366</v>
       </c>
       <c r="I4">
-        <v>18580</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -603,28 +603,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01151135191321373</v>
+        <v>0.01187590509653091</v>
       </c>
       <c r="C5">
-        <v>109548</v>
+        <v>100008</v>
       </c>
       <c r="D5">
-        <v>184268</v>
+        <v>167992</v>
       </c>
       <c r="E5">
-        <v>74720</v>
+        <v>67984</v>
       </c>
       <c r="F5">
-        <v>0.006339818239212036</v>
+        <v>0.01534061506390572</v>
       </c>
       <c r="G5">
-        <v>15644</v>
+        <v>15618</v>
       </c>
       <c r="H5">
-        <v>34222</v>
+        <v>34195</v>
       </c>
       <c r="I5">
-        <v>18578</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -632,25 +632,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.005133237689733505</v>
+        <v>0.02763887401670218</v>
       </c>
       <c r="C6">
-        <v>112953</v>
+        <v>208941</v>
       </c>
       <c r="D6">
-        <v>187433</v>
+        <v>293437</v>
       </c>
       <c r="E6">
-        <v>74480</v>
+        <v>84496</v>
       </c>
       <c r="F6">
-        <v>0.002722699195146561</v>
+        <v>0.01672166993375868</v>
       </c>
       <c r="G6">
-        <v>15636</v>
+        <v>15993</v>
       </c>
       <c r="H6">
-        <v>34361</v>
+        <v>34718</v>
       </c>
       <c r="I6">
         <v>18725</v>
@@ -661,25 +661,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.007607366889715195</v>
+        <v>0.01997594302520156</v>
       </c>
       <c r="C7">
-        <v>110273</v>
+        <v>229973</v>
       </c>
       <c r="D7">
-        <v>184569</v>
+        <v>298949</v>
       </c>
       <c r="E7">
-        <v>74296</v>
+        <v>68976</v>
       </c>
       <c r="F7">
-        <v>0.002745009958744049</v>
+        <v>0.01108373806346208</v>
       </c>
       <c r="G7">
-        <v>15781</v>
+        <v>16121</v>
       </c>
       <c r="H7">
-        <v>34506</v>
+        <v>34846</v>
       </c>
       <c r="I7">
         <v>18725</v>
@@ -690,25 +690,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.00816069170832634</v>
+        <v>0.008309465018101037</v>
       </c>
       <c r="C8">
-        <v>114926</v>
+        <v>101883</v>
       </c>
       <c r="D8">
-        <v>226302</v>
+        <v>171435</v>
       </c>
       <c r="E8">
-        <v>111376</v>
+        <v>69552</v>
       </c>
       <c r="F8">
-        <v>0.003749970346689224</v>
+        <v>0.008777383947744966</v>
       </c>
       <c r="G8">
-        <v>15988</v>
+        <v>15865</v>
       </c>
       <c r="H8">
-        <v>34713</v>
+        <v>34590</v>
       </c>
       <c r="I8">
         <v>18725</v>
@@ -719,25 +719,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.007594548165798187</v>
+        <v>0.02743897994514555</v>
       </c>
       <c r="C9">
-        <v>111048</v>
+        <v>208662</v>
       </c>
       <c r="D9">
-        <v>185056</v>
+        <v>385491</v>
       </c>
       <c r="E9">
-        <v>74008</v>
+        <v>176829</v>
       </c>
       <c r="F9">
-        <v>0.002997327595949173</v>
+        <v>0.007291740039363503</v>
       </c>
       <c r="G9">
-        <v>15282</v>
+        <v>16097</v>
       </c>
       <c r="H9">
-        <v>34007</v>
+        <v>34822</v>
       </c>
       <c r="I9">
         <v>18725</v>
@@ -748,25 +748,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02915550023317337</v>
+        <v>0.009304558974690735</v>
       </c>
       <c r="C10">
-        <v>312783</v>
+        <v>101336</v>
       </c>
       <c r="D10">
-        <v>407975</v>
+        <v>170600</v>
       </c>
       <c r="E10">
-        <v>95192</v>
+        <v>69264</v>
       </c>
       <c r="F10">
-        <v>0.002947583794593811</v>
+        <v>0.007551490911282599</v>
       </c>
       <c r="G10">
-        <v>15507</v>
+        <v>16227</v>
       </c>
       <c r="H10">
-        <v>34232</v>
+        <v>34952</v>
       </c>
       <c r="I10">
         <v>18725</v>
@@ -777,25 +777,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.008376732468605042</v>
+        <v>0.009102944983169436</v>
       </c>
       <c r="C11">
-        <v>111751</v>
+        <v>104470</v>
       </c>
       <c r="D11">
-        <v>186783</v>
+        <v>173142</v>
       </c>
       <c r="E11">
-        <v>75032</v>
+        <v>68672</v>
       </c>
       <c r="F11">
-        <v>0.002938080579042435</v>
+        <v>0.006114966003224254</v>
       </c>
       <c r="G11">
-        <v>15710</v>
+        <v>15715</v>
       </c>
       <c r="H11">
-        <v>34435</v>
+        <v>34440</v>
       </c>
       <c r="I11">
         <v>18725</v>
@@ -806,28 +806,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01380424201488495</v>
+        <v>0.03858801501337439</v>
       </c>
       <c r="C12">
-        <v>98522</v>
+        <v>299301</v>
       </c>
       <c r="D12">
-        <v>174018</v>
+        <v>370181</v>
       </c>
       <c r="E12">
-        <v>75496</v>
+        <v>70880</v>
       </c>
       <c r="F12">
-        <v>0.003266513347625732</v>
+        <v>0.006958613987080753</v>
       </c>
       <c r="G12">
-        <v>15476</v>
+        <v>16401</v>
       </c>
       <c r="H12">
-        <v>34201</v>
+        <v>35102</v>
       </c>
       <c r="I12">
-        <v>18725</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -835,28 +835,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01077082008123398</v>
+        <v>0.01473275502212346</v>
       </c>
       <c r="C13">
-        <v>291515</v>
+        <v>210462</v>
       </c>
       <c r="D13">
-        <v>366128</v>
+        <v>280254</v>
       </c>
       <c r="E13">
-        <v>74613</v>
+        <v>69792</v>
       </c>
       <c r="F13">
-        <v>0.002236582338809967</v>
+        <v>0.01025077607482672</v>
       </c>
       <c r="G13">
-        <v>15700</v>
+        <v>16311</v>
       </c>
       <c r="H13">
-        <v>34425</v>
+        <v>34892</v>
       </c>
       <c r="I13">
-        <v>18725</v>
+        <v>18581</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -864,25 +864,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.008202001452445984</v>
+        <v>0.01252276904415339</v>
       </c>
       <c r="C14">
-        <v>116016</v>
+        <v>98666</v>
       </c>
       <c r="D14">
-        <v>190824</v>
+        <v>165810</v>
       </c>
       <c r="E14">
-        <v>74808</v>
+        <v>67144</v>
       </c>
       <c r="F14">
-        <v>0.003725852817296982</v>
+        <v>0.01542144804261625</v>
       </c>
       <c r="G14">
-        <v>15859</v>
+        <v>16153</v>
       </c>
       <c r="H14">
-        <v>34584</v>
+        <v>34878</v>
       </c>
       <c r="I14">
         <v>18725</v>
@@ -893,28 +893,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.007028732448816299</v>
+        <v>0.01447050098795444</v>
       </c>
       <c r="C15">
-        <v>110190</v>
+        <v>102284</v>
       </c>
       <c r="D15">
-        <v>184030</v>
+        <v>171900</v>
       </c>
       <c r="E15">
-        <v>73840</v>
+        <v>69616</v>
       </c>
       <c r="F15">
-        <v>0.002018988132476807</v>
+        <v>0.005948908976279199</v>
       </c>
       <c r="G15">
-        <v>14924</v>
+        <v>15865</v>
       </c>
       <c r="H15">
-        <v>33625</v>
+        <v>34445</v>
       </c>
       <c r="I15">
-        <v>18701</v>
+        <v>18580</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -922,25 +922,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01454817876219749</v>
+        <v>0.01442994701210409</v>
       </c>
       <c r="C16">
-        <v>239234</v>
+        <v>101130</v>
       </c>
       <c r="D16">
-        <v>351282</v>
+        <v>169914</v>
       </c>
       <c r="E16">
-        <v>112048</v>
+        <v>68784</v>
       </c>
       <c r="F16">
-        <v>0.004839099943637848</v>
+        <v>0.007536238990724087</v>
       </c>
       <c r="G16">
-        <v>15572</v>
+        <v>15865</v>
       </c>
       <c r="H16">
-        <v>34297</v>
+        <v>34590</v>
       </c>
       <c r="I16">
         <v>18725</v>
@@ -951,28 +951,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01036941632628441</v>
+        <v>0.01891402096953243</v>
       </c>
       <c r="C17">
-        <v>96361</v>
+        <v>94924</v>
       </c>
       <c r="D17">
-        <v>168865</v>
+        <v>161788</v>
       </c>
       <c r="E17">
-        <v>72504</v>
+        <v>66864</v>
       </c>
       <c r="F17">
-        <v>0.002890165895223618</v>
+        <v>0.008845199947245419</v>
       </c>
       <c r="G17">
-        <v>14803</v>
+        <v>15897</v>
       </c>
       <c r="H17">
-        <v>33528</v>
+        <v>34474</v>
       </c>
       <c r="I17">
-        <v>18725</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -980,25 +980,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.005025610327720642</v>
+        <v>0.03378959803376347</v>
       </c>
       <c r="C18">
-        <v>108763</v>
+        <v>213828</v>
       </c>
       <c r="D18">
-        <v>183187</v>
+        <v>385516</v>
       </c>
       <c r="E18">
-        <v>74424</v>
+        <v>171688</v>
       </c>
       <c r="F18">
-        <v>0.002128180116415024</v>
+        <v>0.004705733968876302</v>
       </c>
       <c r="G18">
-        <v>15251</v>
+        <v>16057</v>
       </c>
       <c r="H18">
-        <v>33976</v>
+        <v>34782</v>
       </c>
       <c r="I18">
         <v>18725</v>
@@ -1009,25 +1009,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.00759308785200119</v>
+        <v>0.01133638899773359</v>
       </c>
       <c r="C19">
-        <v>111102</v>
+        <v>102813</v>
       </c>
       <c r="D19">
-        <v>185558</v>
+        <v>171973</v>
       </c>
       <c r="E19">
-        <v>74456</v>
+        <v>69160</v>
       </c>
       <c r="F19">
-        <v>0.004065755754709244</v>
+        <v>0.006224810960702598</v>
       </c>
       <c r="G19">
-        <v>15379</v>
+        <v>15865</v>
       </c>
       <c r="H19">
-        <v>34104</v>
+        <v>34590</v>
       </c>
       <c r="I19">
         <v>18725</v>
@@ -1038,25 +1038,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.008107073605060577</v>
+        <v>0.01889096002560109</v>
       </c>
       <c r="C20">
-        <v>109925</v>
+        <v>222578</v>
       </c>
       <c r="D20">
-        <v>184285</v>
+        <v>292554</v>
       </c>
       <c r="E20">
-        <v>74360</v>
+        <v>69976</v>
       </c>
       <c r="F20">
-        <v>0.006974633783102036</v>
+        <v>0.003059619921259582</v>
       </c>
       <c r="G20">
-        <v>15604</v>
+        <v>15865</v>
       </c>
       <c r="H20">
-        <v>34329</v>
+        <v>34590</v>
       </c>
       <c r="I20">
         <v>18725</v>
@@ -1067,28 +1067,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.007073018699884415</v>
+        <v>0.01208228897303343</v>
       </c>
       <c r="C21">
-        <v>109285</v>
+        <v>104160</v>
       </c>
       <c r="D21">
-        <v>183613</v>
+        <v>174128</v>
       </c>
       <c r="E21">
-        <v>74328</v>
+        <v>69968</v>
       </c>
       <c r="F21">
-        <v>0.00261334702372551</v>
+        <v>0.009334412985481322</v>
       </c>
       <c r="G21">
-        <v>15507</v>
+        <v>15673</v>
       </c>
       <c r="H21">
-        <v>34084</v>
+        <v>34398</v>
       </c>
       <c r="I21">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01303098723292351</v>
+        <v>0.01468725595623255</v>
       </c>
       <c r="C22">
-        <v>244760</v>
+        <v>206317</v>
       </c>
       <c r="D22">
-        <v>319096</v>
+        <v>290630</v>
       </c>
       <c r="E22">
-        <v>74336</v>
+        <v>84313</v>
       </c>
       <c r="F22">
-        <v>0.002793021500110626</v>
+        <v>0.01762253302149475</v>
       </c>
       <c r="G22">
-        <v>15540</v>
+        <v>15948</v>
       </c>
       <c r="H22">
-        <v>34117</v>
+        <v>34673</v>
       </c>
       <c r="I22">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1125,25 +1125,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.02429536357522011</v>
+        <v>0.02389562095049769</v>
       </c>
       <c r="C23">
-        <v>332196</v>
+        <v>310504</v>
       </c>
       <c r="D23">
-        <v>406684</v>
+        <v>377512</v>
       </c>
       <c r="E23">
-        <v>74488</v>
+        <v>67008</v>
       </c>
       <c r="F23">
-        <v>0.002198647707700729</v>
+        <v>0.006426568957976997</v>
       </c>
       <c r="G23">
-        <v>15655</v>
+        <v>15577</v>
       </c>
       <c r="H23">
-        <v>34380</v>
+        <v>34302</v>
       </c>
       <c r="I23">
         <v>18725</v>
@@ -1154,25 +1154,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01717516779899597</v>
+        <v>0.01374017505440861</v>
       </c>
       <c r="C24">
-        <v>233614</v>
+        <v>95351</v>
       </c>
       <c r="D24">
-        <v>307950</v>
+        <v>162071</v>
       </c>
       <c r="E24">
-        <v>74336</v>
+        <v>66720</v>
       </c>
       <c r="F24">
-        <v>0.002717141062021255</v>
+        <v>0.002510887919925153</v>
       </c>
       <c r="G24">
-        <v>15379</v>
+        <v>15609</v>
       </c>
       <c r="H24">
-        <v>34104</v>
+        <v>34334</v>
       </c>
       <c r="I24">
         <v>18725</v>
@@ -1183,25 +1183,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01261607185006142</v>
+        <v>0.007898307056166232</v>
       </c>
       <c r="C25">
-        <v>111251</v>
+        <v>93524</v>
       </c>
       <c r="D25">
-        <v>185075</v>
+        <v>159908</v>
       </c>
       <c r="E25">
-        <v>73824</v>
+        <v>66384</v>
       </c>
       <c r="F25">
-        <v>0.002011194825172424</v>
+        <v>0.006964938016608357</v>
       </c>
       <c r="G25">
-        <v>15379</v>
+        <v>15545</v>
       </c>
       <c r="H25">
-        <v>34104</v>
+        <v>34270</v>
       </c>
       <c r="I25">
         <v>18725</v>
@@ -1212,28 +1212,28 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01013727486133575</v>
+        <v>0.01418273197486997</v>
       </c>
       <c r="C26">
-        <v>113248</v>
+        <v>126745</v>
       </c>
       <c r="D26">
-        <v>188920</v>
+        <v>212521</v>
       </c>
       <c r="E26">
-        <v>75672</v>
+        <v>85776</v>
       </c>
       <c r="F26">
-        <v>0.003048162907361984</v>
+        <v>0.006287910044193268</v>
       </c>
       <c r="G26">
-        <v>15283</v>
+        <v>15961</v>
       </c>
       <c r="H26">
-        <v>34008</v>
+        <v>34539</v>
       </c>
       <c r="I26">
-        <v>18725</v>
+        <v>18578</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.005925890058279037</v>
+        <v>0.007975462009198964</v>
       </c>
       <c r="C27">
-        <v>114097</v>
+        <v>99723</v>
       </c>
       <c r="D27">
-        <v>189297</v>
+        <v>168443</v>
       </c>
       <c r="E27">
-        <v>75200</v>
+        <v>68720</v>
       </c>
       <c r="F27">
-        <v>0.001985449343919754</v>
+        <v>0.01008691592141986</v>
       </c>
       <c r="G27">
-        <v>15443</v>
+        <v>15769</v>
       </c>
       <c r="H27">
-        <v>34023</v>
+        <v>34346</v>
       </c>
       <c r="I27">
-        <v>18580</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.005407813936471939</v>
+        <v>0.01256759802345186</v>
       </c>
       <c r="C28">
-        <v>110559</v>
+        <v>92203</v>
       </c>
       <c r="D28">
-        <v>183791</v>
+        <v>158107</v>
       </c>
       <c r="E28">
-        <v>73232</v>
+        <v>65904</v>
       </c>
       <c r="F28">
-        <v>0.002948183566331863</v>
+        <v>0.006380707956850529</v>
       </c>
       <c r="G28">
-        <v>15380</v>
+        <v>15321</v>
       </c>
       <c r="H28">
-        <v>33957</v>
+        <v>33901</v>
       </c>
       <c r="I28">
-        <v>18577</v>
+        <v>18580</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1299,25 +1299,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.02827854827046394</v>
+        <v>0.02775756199844182</v>
       </c>
       <c r="C29">
-        <v>234058</v>
+        <v>286548</v>
       </c>
       <c r="D29">
-        <v>336913</v>
+        <v>354908</v>
       </c>
       <c r="E29">
-        <v>102855</v>
+        <v>68360</v>
       </c>
       <c r="F29">
-        <v>0.002411846071481705</v>
+        <v>0.01084941497538239</v>
       </c>
       <c r="G29">
-        <v>15187</v>
+        <v>16025</v>
       </c>
       <c r="H29">
-        <v>33912</v>
+        <v>34750</v>
       </c>
       <c r="I29">
         <v>18725</v>
@@ -1328,28 +1328,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.01346413046121597</v>
+        <v>0.01679580297786742</v>
       </c>
       <c r="C30">
-        <v>233894</v>
+        <v>204909</v>
       </c>
       <c r="D30">
-        <v>245095</v>
+        <v>274533</v>
       </c>
       <c r="E30">
-        <v>11201</v>
+        <v>69624</v>
       </c>
       <c r="F30">
-        <v>0.003964807838201523</v>
+        <v>0.01014285394921899</v>
       </c>
       <c r="G30">
-        <v>15123</v>
+        <v>15737</v>
       </c>
       <c r="H30">
-        <v>33848</v>
+        <v>34316</v>
       </c>
       <c r="I30">
-        <v>18725</v>
+        <v>18579</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1357,25 +1357,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.01463614776730537</v>
+        <v>0.02749192400369793</v>
       </c>
       <c r="C31">
-        <v>287283</v>
+        <v>310090</v>
       </c>
       <c r="D31">
-        <v>364891</v>
+        <v>311864</v>
       </c>
       <c r="E31">
-        <v>77608</v>
+        <v>1774</v>
       </c>
       <c r="F31">
-        <v>0.002787601202726364</v>
+        <v>0.007476530037820339</v>
       </c>
       <c r="G31">
-        <v>15988</v>
+        <v>15961</v>
       </c>
       <c r="H31">
-        <v>34713</v>
+        <v>34686</v>
       </c>
       <c r="I31">
         <v>18725</v>
@@ -1386,25 +1386,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.007984891533851624</v>
+        <v>0.01056850596796721</v>
       </c>
       <c r="C32">
-        <v>111486</v>
+        <v>103803</v>
       </c>
       <c r="D32">
-        <v>186710</v>
+        <v>173259</v>
       </c>
       <c r="E32">
-        <v>75224</v>
+        <v>69456</v>
       </c>
       <c r="F32">
-        <v>0.003288872539997101</v>
+        <v>0.01129470800515264</v>
       </c>
       <c r="G32">
-        <v>15860</v>
+        <v>16153</v>
       </c>
       <c r="H32">
-        <v>34585</v>
+        <v>34878</v>
       </c>
       <c r="I32">
         <v>18725</v>
@@ -1415,25 +1415,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.006672367453575134</v>
+        <v>0.01696623698808253</v>
       </c>
       <c r="C33">
-        <v>113167</v>
+        <v>199163</v>
       </c>
       <c r="D33">
-        <v>225271</v>
+        <v>267139</v>
       </c>
       <c r="E33">
-        <v>112104</v>
+        <v>67976</v>
       </c>
       <c r="F33">
-        <v>0.002958349883556366</v>
+        <v>0.01029111002571881</v>
       </c>
       <c r="G33">
-        <v>15571</v>
+        <v>15385</v>
       </c>
       <c r="H33">
-        <v>34296</v>
+        <v>34110</v>
       </c>
       <c r="I33">
         <v>18725</v>
@@ -1444,28 +1444,28 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.01209107413887978</v>
+        <v>0.02426625706721097</v>
       </c>
       <c r="C34">
-        <v>111325</v>
+        <v>99060</v>
       </c>
       <c r="D34">
-        <v>185909</v>
+        <v>183404</v>
       </c>
       <c r="E34">
-        <v>74584</v>
+        <v>84344</v>
       </c>
       <c r="F34">
-        <v>0.005819786339998245</v>
+        <v>0.01455011602956802</v>
       </c>
       <c r="G34">
-        <v>15188</v>
+        <v>15801</v>
       </c>
       <c r="H34">
-        <v>33767</v>
+        <v>34379</v>
       </c>
       <c r="I34">
-        <v>18579</v>
+        <v>18578</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1473,25 +1473,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.009549543261528015</v>
+        <v>0.01823607308324426</v>
       </c>
       <c r="C35">
-        <v>111587</v>
+        <v>96455</v>
       </c>
       <c r="D35">
-        <v>185691</v>
+        <v>163959</v>
       </c>
       <c r="E35">
-        <v>74104</v>
+        <v>67504</v>
       </c>
       <c r="F35">
-        <v>0.003196824342012405</v>
+        <v>0.01926473097410053</v>
       </c>
       <c r="G35">
-        <v>15411</v>
+        <v>15449</v>
       </c>
       <c r="H35">
-        <v>34136</v>
+        <v>34174</v>
       </c>
       <c r="I35">
         <v>18725</v>
@@ -1502,28 +1502,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.007135167717933655</v>
+        <v>0.008228949038311839</v>
       </c>
       <c r="C36">
-        <v>109193</v>
+        <v>100066</v>
       </c>
       <c r="D36">
-        <v>183745</v>
+        <v>168946</v>
       </c>
       <c r="E36">
-        <v>74552</v>
+        <v>68880</v>
       </c>
       <c r="F36">
-        <v>0.003066670149564743</v>
+        <v>0.004567675990983844</v>
       </c>
       <c r="G36">
-        <v>15700</v>
+        <v>15385</v>
       </c>
       <c r="H36">
-        <v>34278</v>
+        <v>34110</v>
       </c>
       <c r="I36">
-        <v>18578</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1531,25 +1531,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0219118520617485</v>
+        <v>0.01544804906006902</v>
       </c>
       <c r="C37">
-        <v>240170</v>
+        <v>216495</v>
       </c>
       <c r="D37">
-        <v>364542</v>
+        <v>286511</v>
       </c>
       <c r="E37">
-        <v>124372</v>
+        <v>70016</v>
       </c>
       <c r="F37">
-        <v>0.003156788647174835</v>
+        <v>0.009297620039433241</v>
       </c>
       <c r="G37">
-        <v>15380</v>
+        <v>15673</v>
       </c>
       <c r="H37">
-        <v>34105</v>
+        <v>34398</v>
       </c>
       <c r="I37">
         <v>18725</v>
@@ -1560,25 +1560,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01106288284063339</v>
+        <v>0.04234459798317403</v>
       </c>
       <c r="C38">
-        <v>120840</v>
+        <v>313756</v>
       </c>
       <c r="D38">
-        <v>186013</v>
+        <v>389667</v>
       </c>
       <c r="E38">
-        <v>65173</v>
+        <v>75911</v>
       </c>
       <c r="F38">
-        <v>0.003363151103258133</v>
+        <v>0.01033358706627041</v>
       </c>
       <c r="G38">
-        <v>15315</v>
+        <v>16025</v>
       </c>
       <c r="H38">
-        <v>34040</v>
+        <v>34750</v>
       </c>
       <c r="I38">
         <v>18725</v>
@@ -1589,28 +1589,28 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.01675646007061005</v>
+        <v>0.01770244794897735</v>
       </c>
       <c r="C39">
-        <v>241523</v>
+        <v>101228</v>
       </c>
       <c r="D39">
-        <v>353219</v>
+        <v>170244</v>
       </c>
       <c r="E39">
-        <v>111696</v>
+        <v>69016</v>
       </c>
       <c r="F39">
-        <v>0.002935368567705154</v>
+        <v>0.01447682699654251</v>
       </c>
       <c r="G39">
-        <v>15668</v>
+        <v>16025</v>
       </c>
       <c r="H39">
-        <v>34393</v>
+        <v>34602</v>
       </c>
       <c r="I39">
-        <v>18725</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.01880613714456558</v>
+        <v>0.02586197096388787</v>
       </c>
       <c r="C40">
-        <v>224056</v>
+        <v>260677</v>
       </c>
       <c r="D40">
-        <v>298248</v>
+        <v>343247</v>
       </c>
       <c r="E40">
-        <v>74192</v>
+        <v>82570</v>
       </c>
       <c r="F40">
-        <v>0.00387897714972496</v>
+        <v>0.009990256978198886</v>
       </c>
       <c r="G40">
-        <v>15572</v>
+        <v>15481</v>
       </c>
       <c r="H40">
-        <v>34297</v>
+        <v>34206</v>
       </c>
       <c r="I40">
         <v>18725</v>
@@ -1647,28 +1647,28 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01510667055845261</v>
+        <v>0.009384663077071309</v>
       </c>
       <c r="C41">
-        <v>230806</v>
+        <v>104854</v>
       </c>
       <c r="D41">
-        <v>243122</v>
+        <v>175638</v>
       </c>
       <c r="E41">
-        <v>12316</v>
+        <v>70784</v>
       </c>
       <c r="F41">
-        <v>0.003634314984083176</v>
+        <v>0.01737675699405372</v>
       </c>
       <c r="G41">
-        <v>15187</v>
+        <v>15449</v>
       </c>
       <c r="H41">
-        <v>33912</v>
+        <v>34026</v>
       </c>
       <c r="I41">
-        <v>18725</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1676,28 +1676,28 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.02099501341581345</v>
+        <v>0.01380311499815434</v>
       </c>
       <c r="C42">
-        <v>250557</v>
+        <v>206691</v>
       </c>
       <c r="D42">
-        <v>324917</v>
+        <v>272659</v>
       </c>
       <c r="E42">
-        <v>74360</v>
+        <v>65968</v>
       </c>
       <c r="F42">
-        <v>0.003304988145828247</v>
+        <v>0.007302728015929461</v>
       </c>
       <c r="G42">
-        <v>15507</v>
+        <v>15601</v>
       </c>
       <c r="H42">
-        <v>34232</v>
+        <v>34302</v>
       </c>
       <c r="I42">
-        <v>18725</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1705,25 +1705,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.00754997506737709</v>
+        <v>0.01895930094178766</v>
       </c>
       <c r="C43">
-        <v>110409</v>
+        <v>206806</v>
       </c>
       <c r="D43">
-        <v>185057</v>
+        <v>289800</v>
       </c>
       <c r="E43">
-        <v>74648</v>
+        <v>82994</v>
       </c>
       <c r="F43">
-        <v>0.002261877059936523</v>
+        <v>0.01462165906559676</v>
       </c>
       <c r="G43">
-        <v>15571</v>
+        <v>15801</v>
       </c>
       <c r="H43">
-        <v>34296</v>
+        <v>34526</v>
       </c>
       <c r="I43">
         <v>18725</v>
@@ -1734,28 +1734,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.01944310218095779</v>
+        <v>0.01664132601581514</v>
       </c>
       <c r="C44">
-        <v>227008</v>
+        <v>99809</v>
       </c>
       <c r="D44">
-        <v>391698</v>
+        <v>167505</v>
       </c>
       <c r="E44">
-        <v>164690</v>
+        <v>67696</v>
       </c>
       <c r="F44">
-        <v>0.004300601780414581</v>
+        <v>0.007950857980176806</v>
       </c>
       <c r="G44">
-        <v>15444</v>
+        <v>15897</v>
       </c>
       <c r="H44">
-        <v>34169</v>
+        <v>34325</v>
       </c>
       <c r="I44">
-        <v>18725</v>
+        <v>18428</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1763,25 +1763,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.01473122462630272</v>
+        <v>0.01750695402733982</v>
       </c>
       <c r="C45">
-        <v>214279</v>
+        <v>102116</v>
       </c>
       <c r="D45">
-        <v>301887</v>
+        <v>170628</v>
       </c>
       <c r="E45">
-        <v>87608</v>
+        <v>68512</v>
       </c>
       <c r="F45">
-        <v>0.002625349909067154</v>
+        <v>0.01180014701094478</v>
       </c>
       <c r="G45">
-        <v>14804</v>
+        <v>15993</v>
       </c>
       <c r="H45">
-        <v>33529</v>
+        <v>34718</v>
       </c>
       <c r="I45">
         <v>18725</v>
@@ -1792,28 +1792,28 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.007509101182222366</v>
+        <v>0.008712608949281275</v>
       </c>
       <c r="C46">
-        <v>112270</v>
+        <v>94985</v>
       </c>
       <c r="D46">
-        <v>187014</v>
+        <v>161657</v>
       </c>
       <c r="E46">
-        <v>74744</v>
+        <v>66672</v>
       </c>
       <c r="F46">
-        <v>0.003193102777004242</v>
+        <v>0.01977724500466138</v>
       </c>
       <c r="G46">
-        <v>15763</v>
+        <v>15961</v>
       </c>
       <c r="H46">
-        <v>34340</v>
+        <v>34686</v>
       </c>
       <c r="I46">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1821,25 +1821,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.005623456090688705</v>
+        <v>0.04105577303562313</v>
       </c>
       <c r="C47">
-        <v>110205</v>
+        <v>268876</v>
       </c>
       <c r="D47">
-        <v>184397</v>
+        <v>337324</v>
       </c>
       <c r="E47">
-        <v>74192</v>
+        <v>68448</v>
       </c>
       <c r="F47">
-        <v>0.00215604156255722</v>
+        <v>0.01042232301551849</v>
       </c>
       <c r="G47">
-        <v>15731</v>
+        <v>16025</v>
       </c>
       <c r="H47">
-        <v>34456</v>
+        <v>34750</v>
       </c>
       <c r="I47">
         <v>18725</v>
@@ -1850,28 +1850,28 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.008702915161848068</v>
+        <v>0.02173535095062107</v>
       </c>
       <c r="C48">
-        <v>116368</v>
+        <v>96699</v>
       </c>
       <c r="D48">
-        <v>225152</v>
+        <v>164507</v>
       </c>
       <c r="E48">
-        <v>108784</v>
+        <v>67808</v>
       </c>
       <c r="F48">
-        <v>0.002843033522367477</v>
+        <v>0.009167692973278463</v>
       </c>
       <c r="G48">
-        <v>15347</v>
+        <v>15665</v>
       </c>
       <c r="H48">
-        <v>33925</v>
+        <v>34366</v>
       </c>
       <c r="I48">
-        <v>18578</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1879,25 +1879,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01495829224586487</v>
+        <v>0.03760920802596956</v>
       </c>
       <c r="C49">
-        <v>232108</v>
+        <v>212441</v>
       </c>
       <c r="D49">
-        <v>303660</v>
+        <v>360524</v>
       </c>
       <c r="E49">
-        <v>71552</v>
+        <v>148083</v>
       </c>
       <c r="F49">
-        <v>0.002840470522642136</v>
+        <v>0.006195146008394659</v>
       </c>
       <c r="G49">
-        <v>15284</v>
+        <v>15609</v>
       </c>
       <c r="H49">
-        <v>34009</v>
+        <v>34334</v>
       </c>
       <c r="I49">
         <v>18725</v>
@@ -1908,25 +1908,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.008211120963096619</v>
+        <v>0.01175427297130227</v>
       </c>
       <c r="C50">
-        <v>112097</v>
+        <v>88728</v>
       </c>
       <c r="D50">
-        <v>186102</v>
+        <v>162112</v>
       </c>
       <c r="E50">
-        <v>74005</v>
+        <v>73384</v>
       </c>
       <c r="F50">
-        <v>0.003392033278942108</v>
+        <v>0.009039922966621816</v>
       </c>
       <c r="G50">
-        <v>15379</v>
+        <v>15545</v>
       </c>
       <c r="H50">
-        <v>34104</v>
+        <v>34270</v>
       </c>
       <c r="I50">
         <v>18725</v>
@@ -1937,25 +1937,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.01696238666772842</v>
+        <v>0.006835498032160103</v>
       </c>
       <c r="C51">
-        <v>219508</v>
+        <v>97833</v>
       </c>
       <c r="D51">
-        <v>331292</v>
+        <v>164745</v>
       </c>
       <c r="E51">
-        <v>111784</v>
+        <v>66912</v>
       </c>
       <c r="F51">
-        <v>0.004917200654745102</v>
+        <v>0.01053441793192178</v>
       </c>
       <c r="G51">
-        <v>15668</v>
+        <v>15353</v>
       </c>
       <c r="H51">
-        <v>34393</v>
+        <v>34078</v>
       </c>
       <c r="I51">
         <v>18725</v>
@@ -1966,28 +1966,28 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.01431410759687424</v>
+        <v>0.03730475902557373</v>
       </c>
       <c r="C52">
-        <v>209003</v>
+        <v>297849</v>
       </c>
       <c r="D52">
-        <v>292027</v>
+        <v>375131</v>
       </c>
       <c r="E52">
-        <v>83024</v>
+        <v>77282</v>
       </c>
       <c r="F52">
-        <v>0.002767477184534073</v>
+        <v>0.01128932798746973</v>
       </c>
       <c r="G52">
-        <v>15475</v>
+        <v>15737</v>
       </c>
       <c r="H52">
-        <v>34052</v>
+        <v>34312</v>
       </c>
       <c r="I52">
-        <v>18577</v>
+        <v>18575</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1995,25 +1995,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0152507983148098</v>
+        <v>0.02564773592166603</v>
       </c>
       <c r="C53">
-        <v>233891</v>
+        <v>187363</v>
       </c>
       <c r="D53">
-        <v>308115</v>
+        <v>256083</v>
       </c>
       <c r="E53">
-        <v>74224</v>
+        <v>68720</v>
       </c>
       <c r="F53">
-        <v>0.003360744565725327</v>
+        <v>0.01264309405814856</v>
       </c>
       <c r="G53">
-        <v>15353</v>
+        <v>15807</v>
       </c>
       <c r="H53">
-        <v>34078</v>
+        <v>34532</v>
       </c>
       <c r="I53">
         <v>18725</v>
@@ -2024,28 +2024,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.01549970731139183</v>
+        <v>0.02475254703313112</v>
       </c>
       <c r="C54">
-        <v>190039</v>
+        <v>176941</v>
       </c>
       <c r="D54">
-        <v>264471</v>
+        <v>245693</v>
       </c>
       <c r="E54">
-        <v>74432</v>
+        <v>68752</v>
       </c>
       <c r="F54">
-        <v>0.002641838043928146</v>
+        <v>0.01401120494119823</v>
       </c>
       <c r="G54">
-        <v>15251</v>
+        <v>15665</v>
       </c>
       <c r="H54">
-        <v>33976</v>
+        <v>34366</v>
       </c>
       <c r="I54">
-        <v>18725</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2053,28 +2053,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.00687827542424202</v>
+        <v>0.01652341603767127</v>
       </c>
       <c r="C55">
-        <v>110193</v>
+        <v>104071</v>
       </c>
       <c r="D55">
-        <v>185065</v>
+        <v>173399</v>
       </c>
       <c r="E55">
-        <v>74872</v>
+        <v>69328</v>
       </c>
       <c r="F55">
-        <v>0.001867305487394333</v>
+        <v>0.01772852509748191</v>
       </c>
       <c r="G55">
-        <v>15155</v>
+        <v>15929</v>
       </c>
       <c r="H55">
-        <v>33880</v>
+        <v>34506</v>
       </c>
       <c r="I55">
-        <v>18725</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2082,28 +2082,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.009161718189716339</v>
+        <v>0.008922099019400775</v>
       </c>
       <c r="C56">
-        <v>111951</v>
+        <v>103317</v>
       </c>
       <c r="D56">
-        <v>187127</v>
+        <v>173157</v>
       </c>
       <c r="E56">
-        <v>75176</v>
+        <v>69840</v>
       </c>
       <c r="F56">
-        <v>0.002661112695932388</v>
+        <v>0.01934837398584932</v>
       </c>
       <c r="G56">
-        <v>15635</v>
+        <v>15577</v>
       </c>
       <c r="H56">
-        <v>34212</v>
+        <v>34302</v>
       </c>
       <c r="I56">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2111,25 +2111,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.02020032703876495</v>
+        <v>0.01812445500399917</v>
       </c>
       <c r="C57">
-        <v>236357</v>
+        <v>104670</v>
       </c>
       <c r="D57">
-        <v>334196</v>
+        <v>174566</v>
       </c>
       <c r="E57">
-        <v>97839</v>
+        <v>69896</v>
       </c>
       <c r="F57">
-        <v>0.002079516649246216</v>
+        <v>0.01325525599531829</v>
       </c>
       <c r="G57">
-        <v>15476</v>
+        <v>15865</v>
       </c>
       <c r="H57">
-        <v>34201</v>
+        <v>34590</v>
       </c>
       <c r="I57">
         <v>18725</v>
@@ -2140,25 +2140,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.009640857577323914</v>
+        <v>0.01581872603856027</v>
       </c>
       <c r="C58">
-        <v>114846</v>
+        <v>227919</v>
       </c>
       <c r="D58">
-        <v>224654</v>
+        <v>297343</v>
       </c>
       <c r="E58">
-        <v>109808</v>
+        <v>69424</v>
       </c>
       <c r="F58">
-        <v>0.003517664968967438</v>
+        <v>0.01141195301897824</v>
       </c>
       <c r="G58">
-        <v>15860</v>
+        <v>16217</v>
       </c>
       <c r="H58">
-        <v>34585</v>
+        <v>34942</v>
       </c>
       <c r="I58">
         <v>18725</v>
@@ -2169,28 +2169,28 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.006968684494495392</v>
+        <v>0.01405114098452032</v>
       </c>
       <c r="C59">
-        <v>108388</v>
+        <v>100601</v>
       </c>
       <c r="D59">
-        <v>182588</v>
+        <v>170161</v>
       </c>
       <c r="E59">
-        <v>74200</v>
+        <v>69560</v>
       </c>
       <c r="F59">
-        <v>0.00191454216837883</v>
+        <v>0.01188129908405244</v>
       </c>
       <c r="G59">
-        <v>15540</v>
+        <v>16057</v>
       </c>
       <c r="H59">
-        <v>34121</v>
+        <v>34782</v>
       </c>
       <c r="I59">
-        <v>18581</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2198,28 +2198,28 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.007737960666418076</v>
+        <v>0.01891771494410932</v>
       </c>
       <c r="C60">
-        <v>110859</v>
+        <v>100188</v>
       </c>
       <c r="D60">
-        <v>185443</v>
+        <v>171300</v>
       </c>
       <c r="E60">
-        <v>74584</v>
+        <v>71112</v>
       </c>
       <c r="F60">
-        <v>0.004667319357395172</v>
+        <v>0.005195553996600211</v>
       </c>
       <c r="G60">
-        <v>15507</v>
+        <v>15729</v>
       </c>
       <c r="H60">
-        <v>34232</v>
+        <v>34282</v>
       </c>
       <c r="I60">
-        <v>18725</v>
+        <v>18553</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2227,25 +2227,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.01894497498869896</v>
+        <v>0.01543279201723635</v>
       </c>
       <c r="C61">
-        <v>225596</v>
+        <v>214406</v>
       </c>
       <c r="D61">
-        <v>336316</v>
+        <v>283526</v>
       </c>
       <c r="E61">
-        <v>110720</v>
+        <v>69120</v>
       </c>
       <c r="F61">
-        <v>0.002761866897344589</v>
+        <v>0.01639225101098418</v>
       </c>
       <c r="G61">
-        <v>15219</v>
+        <v>15993</v>
       </c>
       <c r="H61">
-        <v>33797</v>
+        <v>34571</v>
       </c>
       <c r="I61">
         <v>18578</v>
@@ -2256,25 +2256,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.01481699571013451</v>
+        <v>0.02475659595802426</v>
       </c>
       <c r="C62">
-        <v>233781</v>
+        <v>210156</v>
       </c>
       <c r="D62">
-        <v>309029</v>
+        <v>280364</v>
       </c>
       <c r="E62">
-        <v>75248</v>
+        <v>70208</v>
       </c>
       <c r="F62">
-        <v>0.002004716545343399</v>
+        <v>0.01102140895090997</v>
       </c>
       <c r="G62">
-        <v>15379</v>
+        <v>15641</v>
       </c>
       <c r="H62">
-        <v>34104</v>
+        <v>34366</v>
       </c>
       <c r="I62">
         <v>18725</v>
@@ -2285,28 +2285,28 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.007569052278995514</v>
+        <v>0.01616866700351238</v>
       </c>
       <c r="C63">
-        <v>110455</v>
+        <v>100780</v>
       </c>
       <c r="D63">
-        <v>184639</v>
+        <v>165805</v>
       </c>
       <c r="E63">
-        <v>74184</v>
+        <v>65025</v>
       </c>
       <c r="F63">
-        <v>0.002685952931642532</v>
+        <v>0.01114981004502624</v>
       </c>
       <c r="G63">
-        <v>15603</v>
+        <v>15897</v>
       </c>
       <c r="H63">
-        <v>34180</v>
+        <v>34478</v>
       </c>
       <c r="I63">
-        <v>18577</v>
+        <v>18581</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2314,25 +2314,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.006633475422859192</v>
+        <v>0.02599611098412424</v>
       </c>
       <c r="C64">
-        <v>113226</v>
+        <v>200144</v>
       </c>
       <c r="D64">
-        <v>188602</v>
+        <v>269088</v>
       </c>
       <c r="E64">
-        <v>75376</v>
+        <v>68944</v>
       </c>
       <c r="F64">
-        <v>0.003037050366401672</v>
+        <v>0.01832082797773182</v>
       </c>
       <c r="G64">
-        <v>15540</v>
+        <v>16121</v>
       </c>
       <c r="H64">
-        <v>34265</v>
+        <v>34846</v>
       </c>
       <c r="I64">
         <v>18725</v>
@@ -2343,25 +2343,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.01379504799842834</v>
+        <v>0.01539160707034171</v>
       </c>
       <c r="C65">
-        <v>240328</v>
+        <v>216942</v>
       </c>
       <c r="D65">
-        <v>358150</v>
+        <v>284774</v>
       </c>
       <c r="E65">
-        <v>117822</v>
+        <v>67832</v>
       </c>
       <c r="F65">
-        <v>0.001975879073143005</v>
+        <v>0.01351983204949647</v>
       </c>
       <c r="G65">
-        <v>15603</v>
+        <v>16089</v>
       </c>
       <c r="H65">
-        <v>34328</v>
+        <v>34814</v>
       </c>
       <c r="I65">
         <v>18725</v>
@@ -2372,28 +2372,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.005731314420700073</v>
+        <v>0.02082674996927381</v>
       </c>
       <c r="C66">
-        <v>108595</v>
+        <v>227301</v>
       </c>
       <c r="D66">
-        <v>182219</v>
+        <v>296653</v>
       </c>
       <c r="E66">
-        <v>73624</v>
+        <v>69352</v>
       </c>
       <c r="F66">
-        <v>0.003580030053853989</v>
+        <v>0.009244807995855808</v>
       </c>
       <c r="G66">
-        <v>15796</v>
+        <v>15449</v>
       </c>
       <c r="H66">
-        <v>34521</v>
+        <v>34027</v>
       </c>
       <c r="I66">
-        <v>18725</v>
+        <v>18578</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2401,25 +2401,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.01271365582942963</v>
+        <v>0.01463291700929403</v>
       </c>
       <c r="C67">
-        <v>112626</v>
+        <v>100736</v>
       </c>
       <c r="D67">
-        <v>187778</v>
+        <v>169872</v>
       </c>
       <c r="E67">
-        <v>75152</v>
+        <v>69136</v>
       </c>
       <c r="F67">
-        <v>0.003555618226528168</v>
+        <v>0.01054086396470666</v>
       </c>
       <c r="G67">
-        <v>15476</v>
+        <v>16089</v>
       </c>
       <c r="H67">
-        <v>34201</v>
+        <v>34814</v>
       </c>
       <c r="I67">
         <v>18725</v>
@@ -2430,25 +2430,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.005863532423973083</v>
+        <v>0.02074318507220596</v>
       </c>
       <c r="C68">
-        <v>108705</v>
+        <v>104359</v>
       </c>
       <c r="D68">
-        <v>182969</v>
+        <v>174247</v>
       </c>
       <c r="E68">
-        <v>74264</v>
+        <v>69888</v>
       </c>
       <c r="F68">
-        <v>0.002661380916833878</v>
+        <v>0.01154931599739939</v>
       </c>
       <c r="G68">
-        <v>15571</v>
+        <v>15865</v>
       </c>
       <c r="H68">
-        <v>34296</v>
+        <v>34590</v>
       </c>
       <c r="I68">
         <v>18725</v>
@@ -2459,28 +2459,28 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.01585891842842102</v>
+        <v>0.01876846805680543</v>
       </c>
       <c r="C69">
-        <v>229764</v>
+        <v>198530</v>
       </c>
       <c r="D69">
-        <v>304512</v>
+        <v>265514</v>
       </c>
       <c r="E69">
-        <v>74748</v>
+        <v>66984</v>
       </c>
       <c r="F69">
-        <v>0.003062494099140167</v>
+        <v>0.007395301014184952</v>
       </c>
       <c r="G69">
-        <v>15564</v>
+        <v>15641</v>
       </c>
       <c r="H69">
-        <v>34265</v>
+        <v>34218</v>
       </c>
       <c r="I69">
-        <v>18701</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2488,28 +2488,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.007680729031562805</v>
+        <v>0.02129530801903456</v>
       </c>
       <c r="C70">
-        <v>109705</v>
+        <v>208254</v>
       </c>
       <c r="D70">
-        <v>184065</v>
+        <v>276046</v>
       </c>
       <c r="E70">
-        <v>74360</v>
+        <v>67792</v>
       </c>
       <c r="F70">
-        <v>0.003333225846290588</v>
+        <v>0.009637885959818959</v>
       </c>
       <c r="G70">
-        <v>15220</v>
+        <v>16249</v>
       </c>
       <c r="H70">
-        <v>33797</v>
+        <v>34974</v>
       </c>
       <c r="I70">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2517,25 +2517,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.01338876411318779</v>
+        <v>0.01770519104320556</v>
       </c>
       <c r="C71">
-        <v>215421</v>
+        <v>98467</v>
       </c>
       <c r="D71">
-        <v>285749</v>
+        <v>166339</v>
       </c>
       <c r="E71">
-        <v>70328</v>
+        <v>67872</v>
       </c>
       <c r="F71">
-        <v>0.00328899547457695</v>
+        <v>0.01366034604143351</v>
       </c>
       <c r="G71">
-        <v>15284</v>
+        <v>15513</v>
       </c>
       <c r="H71">
-        <v>34009</v>
+        <v>34238</v>
       </c>
       <c r="I71">
         <v>18725</v>
@@ -2546,28 +2546,28 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.02716978639364243</v>
+        <v>0.01044171501416713</v>
       </c>
       <c r="C72">
-        <v>250028</v>
+        <v>92924</v>
       </c>
       <c r="D72">
-        <v>324660</v>
+        <v>159084</v>
       </c>
       <c r="E72">
-        <v>74632</v>
+        <v>66160</v>
       </c>
       <c r="F72">
-        <v>0.003008536994457245</v>
+        <v>0.01768342300783843</v>
       </c>
       <c r="G72">
-        <v>15507</v>
+        <v>15761</v>
       </c>
       <c r="H72">
-        <v>34232</v>
+        <v>34462</v>
       </c>
       <c r="I72">
-        <v>18725</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2575,28 +2575,28 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.009417399764060974</v>
+        <v>0.02148674498312175</v>
       </c>
       <c r="C73">
-        <v>110335</v>
+        <v>89954</v>
       </c>
       <c r="D73">
-        <v>184855</v>
+        <v>157266</v>
       </c>
       <c r="E73">
-        <v>74520</v>
+        <v>67312</v>
       </c>
       <c r="F73">
-        <v>0.004905764013528824</v>
+        <v>0.01338172308169305</v>
       </c>
       <c r="G73">
-        <v>15627</v>
+        <v>15801</v>
       </c>
       <c r="H73">
-        <v>34328</v>
+        <v>34526</v>
       </c>
       <c r="I73">
-        <v>18701</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2604,28 +2604,28 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.01112407073378563</v>
+        <v>0.01522868394386023</v>
       </c>
       <c r="C74">
-        <v>112761</v>
+        <v>210096</v>
       </c>
       <c r="D74">
-        <v>220457</v>
+        <v>280288</v>
       </c>
       <c r="E74">
-        <v>107696</v>
+        <v>70192</v>
       </c>
       <c r="F74">
-        <v>0.002349786460399628</v>
+        <v>0.01032915501855314</v>
       </c>
       <c r="G74">
-        <v>15732</v>
+        <v>15929</v>
       </c>
       <c r="H74">
-        <v>34457</v>
+        <v>34508</v>
       </c>
       <c r="I74">
-        <v>18725</v>
+        <v>18579</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2633,28 +2633,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.01173451170325279</v>
+        <v>0.02234872302506119</v>
       </c>
       <c r="C75">
-        <v>213101</v>
+        <v>204843</v>
       </c>
       <c r="D75">
-        <v>296253</v>
+        <v>273283</v>
       </c>
       <c r="E75">
-        <v>83152</v>
+        <v>68440</v>
       </c>
       <c r="F75">
-        <v>0.002327218651771545</v>
+        <v>0.01814685307908803</v>
       </c>
       <c r="G75">
-        <v>15027</v>
+        <v>15769</v>
       </c>
       <c r="H75">
-        <v>33752</v>
+        <v>34349</v>
       </c>
       <c r="I75">
-        <v>18725</v>
+        <v>18580</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2662,25 +2662,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.01316928490996361</v>
+        <v>0.02980260003823787</v>
       </c>
       <c r="C76">
-        <v>110494</v>
+        <v>212062</v>
       </c>
       <c r="D76">
-        <v>184614</v>
+        <v>309622</v>
       </c>
       <c r="E76">
-        <v>74120</v>
+        <v>97560</v>
       </c>
       <c r="F76">
-        <v>0.003040652722120285</v>
+        <v>0.007711059064604342</v>
       </c>
       <c r="G76">
-        <v>15475</v>
+        <v>15801</v>
       </c>
       <c r="H76">
-        <v>34200</v>
+        <v>34526</v>
       </c>
       <c r="I76">
         <v>18725</v>
@@ -2691,25 +2691,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.009720906615257263</v>
+        <v>0.02102773007936776</v>
       </c>
       <c r="C77">
-        <v>111649</v>
+        <v>97099</v>
       </c>
       <c r="D77">
-        <v>186289</v>
+        <v>165035</v>
       </c>
       <c r="E77">
-        <v>74640</v>
+        <v>67936</v>
       </c>
       <c r="F77">
-        <v>0.002808384597301483</v>
+        <v>0.01112202799413353</v>
       </c>
       <c r="G77">
-        <v>15315</v>
+        <v>15449</v>
       </c>
       <c r="H77">
-        <v>34040</v>
+        <v>34174</v>
       </c>
       <c r="I77">
         <v>18725</v>
@@ -2720,28 +2720,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.01634656637907028</v>
+        <v>0.007510437979362905</v>
       </c>
       <c r="C78">
-        <v>244869</v>
+        <v>101103</v>
       </c>
       <c r="D78">
-        <v>319453</v>
+        <v>170047</v>
       </c>
       <c r="E78">
-        <v>74584</v>
+        <v>68944</v>
       </c>
       <c r="F78">
-        <v>0.004778843373060226</v>
+        <v>0.01592391706071794</v>
       </c>
       <c r="G78">
-        <v>15571</v>
+        <v>15321</v>
       </c>
       <c r="H78">
-        <v>34296</v>
+        <v>33899</v>
       </c>
       <c r="I78">
-        <v>18725</v>
+        <v>18578</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2749,28 +2749,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.008725680410861969</v>
+        <v>0.01209295098669827</v>
       </c>
       <c r="C79">
-        <v>111276</v>
+        <v>92084</v>
       </c>
       <c r="D79">
-        <v>186180</v>
+        <v>157756</v>
       </c>
       <c r="E79">
-        <v>74904</v>
+        <v>65672</v>
       </c>
       <c r="F79">
-        <v>0.003587942570447922</v>
+        <v>0.01281846093479544</v>
       </c>
       <c r="G79">
-        <v>16052</v>
+        <v>15737</v>
       </c>
       <c r="H79">
-        <v>34485</v>
+        <v>34318</v>
       </c>
       <c r="I79">
-        <v>18433</v>
+        <v>18581</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2778,28 +2778,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.008263971656560898</v>
+        <v>0.01823876693379134</v>
       </c>
       <c r="C80">
-        <v>111791</v>
+        <v>217838</v>
       </c>
       <c r="D80">
-        <v>186663</v>
+        <v>383770</v>
       </c>
       <c r="E80">
-        <v>74872</v>
+        <v>165932</v>
       </c>
       <c r="F80">
-        <v>0.002863533794879913</v>
+        <v>0.01047547801863402</v>
       </c>
       <c r="G80">
-        <v>15668</v>
+        <v>16153</v>
       </c>
       <c r="H80">
-        <v>34393</v>
+        <v>34734</v>
       </c>
       <c r="I80">
-        <v>18725</v>
+        <v>18581</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2807,28 +2807,28 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.007730737328529358</v>
+        <v>0.02419778006151319</v>
       </c>
       <c r="C81">
-        <v>111078</v>
+        <v>208120</v>
       </c>
       <c r="D81">
-        <v>186110</v>
+        <v>364551</v>
       </c>
       <c r="E81">
-        <v>75032</v>
+        <v>156431</v>
       </c>
       <c r="F81">
-        <v>0.005951240658760071</v>
+        <v>0.01809553895145655</v>
       </c>
       <c r="G81">
-        <v>15412</v>
+        <v>15865</v>
       </c>
       <c r="H81">
-        <v>33993</v>
+        <v>34442</v>
       </c>
       <c r="I81">
-        <v>18581</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2836,25 +2836,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0150832012295723</v>
+        <v>0.02121131005696952</v>
       </c>
       <c r="C82">
-        <v>233675</v>
+        <v>98301</v>
       </c>
       <c r="D82">
-        <v>307643</v>
+        <v>165709</v>
       </c>
       <c r="E82">
-        <v>73968</v>
+        <v>67408</v>
       </c>
       <c r="F82">
-        <v>0.002291187644004822</v>
+        <v>0.01411635393742472</v>
       </c>
       <c r="G82">
-        <v>15859</v>
+        <v>15769</v>
       </c>
       <c r="H82">
-        <v>34584</v>
+        <v>34494</v>
       </c>
       <c r="I82">
         <v>18725</v>
@@ -2865,28 +2865,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.02415022253990173</v>
+        <v>0.02794962096959352</v>
       </c>
       <c r="C83">
-        <v>239938</v>
+        <v>310969</v>
       </c>
       <c r="D83">
-        <v>371871</v>
+        <v>380681</v>
       </c>
       <c r="E83">
-        <v>131933</v>
+        <v>69712</v>
       </c>
       <c r="F83">
-        <v>0.002922359853982925</v>
+        <v>0.01181840896606445</v>
       </c>
       <c r="G83">
-        <v>15379</v>
+        <v>15769</v>
       </c>
       <c r="H83">
-        <v>34104</v>
+        <v>34347</v>
       </c>
       <c r="I83">
-        <v>18725</v>
+        <v>18578</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2894,25 +2894,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.008386615663766861</v>
+        <v>0.02123460499569774</v>
       </c>
       <c r="C84">
-        <v>111449</v>
+        <v>194220</v>
       </c>
       <c r="D84">
-        <v>186665</v>
+        <v>261600</v>
       </c>
       <c r="E84">
-        <v>75216</v>
+        <v>67380</v>
       </c>
       <c r="F84">
-        <v>0.002375386655330658</v>
+        <v>0.01154140406288207</v>
       </c>
       <c r="G84">
-        <v>15475</v>
+        <v>15865</v>
       </c>
       <c r="H84">
-        <v>34200</v>
+        <v>34590</v>
       </c>
       <c r="I84">
         <v>18725</v>
@@ -2923,28 +2923,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.008551843464374542</v>
+        <v>0.03195510699879378</v>
       </c>
       <c r="C85">
-        <v>109149</v>
+        <v>83940</v>
       </c>
       <c r="D85">
-        <v>182893</v>
+        <v>149724</v>
       </c>
       <c r="E85">
-        <v>73744</v>
+        <v>65784</v>
       </c>
       <c r="F85">
-        <v>0.003099467605352402</v>
+        <v>0.01682816201355308</v>
       </c>
       <c r="G85">
-        <v>15476</v>
+        <v>15897</v>
       </c>
       <c r="H85">
-        <v>34053</v>
+        <v>34622</v>
       </c>
       <c r="I85">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2952,28 +2952,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.01051501929759979</v>
+        <v>0.02540306595619768</v>
       </c>
       <c r="C86">
-        <v>114692</v>
+        <v>270747</v>
       </c>
       <c r="D86">
-        <v>189212</v>
+        <v>338147</v>
       </c>
       <c r="E86">
-        <v>74520</v>
+        <v>67400</v>
       </c>
       <c r="F86">
-        <v>0.00232122465968132</v>
+        <v>0.003878596005961299</v>
       </c>
       <c r="G86">
-        <v>15667</v>
+        <v>15705</v>
       </c>
       <c r="H86">
-        <v>34247</v>
+        <v>34430</v>
       </c>
       <c r="I86">
-        <v>18580</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2981,25 +2981,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.008842922747135162</v>
+        <v>0.02117782109417021</v>
       </c>
       <c r="C87">
-        <v>113632</v>
+        <v>207476</v>
       </c>
       <c r="D87">
-        <v>225056</v>
+        <v>295150</v>
       </c>
       <c r="E87">
-        <v>111424</v>
+        <v>87674</v>
       </c>
       <c r="F87">
-        <v>0.002922099083662033</v>
+        <v>0.01495759596582502</v>
       </c>
       <c r="G87">
-        <v>15572</v>
+        <v>15705</v>
       </c>
       <c r="H87">
-        <v>34297</v>
+        <v>34430</v>
       </c>
       <c r="I87">
         <v>18725</v>
@@ -3010,28 +3010,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.009980268776416779</v>
+        <v>0.02310562902130187</v>
       </c>
       <c r="C88">
-        <v>109855</v>
+        <v>100569</v>
       </c>
       <c r="D88">
-        <v>184535</v>
+        <v>168409</v>
       </c>
       <c r="E88">
-        <v>74680</v>
+        <v>67840</v>
       </c>
       <c r="F88">
-        <v>0.002654828131198883</v>
+        <v>0.01213291101157665</v>
       </c>
       <c r="G88">
-        <v>15220</v>
+        <v>15897</v>
       </c>
       <c r="H88">
-        <v>33945</v>
+        <v>34472</v>
       </c>
       <c r="I88">
-        <v>18725</v>
+        <v>18575</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3039,25 +3039,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.01549626514315605</v>
+        <v>0.01435036293696612</v>
       </c>
       <c r="C89">
-        <v>233344</v>
+        <v>209769</v>
       </c>
       <c r="D89">
-        <v>307744</v>
+        <v>277029</v>
       </c>
       <c r="E89">
-        <v>74400</v>
+        <v>67260</v>
       </c>
       <c r="F89">
-        <v>0.004321254789829254</v>
+        <v>0.01089534105267376</v>
       </c>
       <c r="G89">
-        <v>15732</v>
+        <v>15385</v>
       </c>
       <c r="H89">
-        <v>34457</v>
+        <v>34110</v>
       </c>
       <c r="I89">
         <v>18725</v>
@@ -3068,28 +3068,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.006976496428251266</v>
+        <v>0.008851769962348044</v>
       </c>
       <c r="C90">
-        <v>109966</v>
+        <v>100450</v>
       </c>
       <c r="D90">
-        <v>184158</v>
+        <v>168690</v>
       </c>
       <c r="E90">
-        <v>74192</v>
+        <v>68240</v>
       </c>
       <c r="F90">
-        <v>0.002017665654420853</v>
+        <v>0.01914181699976325</v>
       </c>
       <c r="G90">
-        <v>15252</v>
+        <v>15545</v>
       </c>
       <c r="H90">
-        <v>33977</v>
+        <v>33976</v>
       </c>
       <c r="I90">
-        <v>18725</v>
+        <v>18431</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3097,25 +3097,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.01444369927048683</v>
+        <v>0.01024281803984195</v>
       </c>
       <c r="C91">
-        <v>110150</v>
+        <v>104786</v>
       </c>
       <c r="D91">
-        <v>182838</v>
+        <v>174714</v>
       </c>
       <c r="E91">
-        <v>72688</v>
+        <v>69928</v>
       </c>
       <c r="F91">
-        <v>0.004457630217075348</v>
+        <v>0.01522831490729004</v>
       </c>
       <c r="G91">
-        <v>15412</v>
+        <v>16057</v>
       </c>
       <c r="H91">
-        <v>34137</v>
+        <v>34782</v>
       </c>
       <c r="I91">
         <v>18725</v>
@@ -3126,28 +3126,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.01428834348917007</v>
+        <v>0.01717597502283752</v>
       </c>
       <c r="C92">
-        <v>244116</v>
+        <v>194794</v>
       </c>
       <c r="D92">
-        <v>319296</v>
+        <v>261370</v>
       </c>
       <c r="E92">
-        <v>75180</v>
+        <v>66576</v>
       </c>
       <c r="F92">
-        <v>0.002932004630565643</v>
+        <v>0.01137935591395944</v>
       </c>
       <c r="G92">
-        <v>15412</v>
+        <v>15769</v>
       </c>
       <c r="H92">
-        <v>33989</v>
+        <v>34494</v>
       </c>
       <c r="I92">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3155,28 +3155,28 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.007476318627595901</v>
+        <v>0.01552244089543819</v>
       </c>
       <c r="C93">
-        <v>109546</v>
+        <v>100754</v>
       </c>
       <c r="D93">
-        <v>184034</v>
+        <v>169650</v>
       </c>
       <c r="E93">
-        <v>74488</v>
+        <v>68896</v>
       </c>
       <c r="F93">
-        <v>0.003015652298927307</v>
+        <v>0.01557102508377284</v>
       </c>
       <c r="G93">
-        <v>15187</v>
+        <v>16185</v>
       </c>
       <c r="H93">
-        <v>33912</v>
+        <v>34618</v>
       </c>
       <c r="I93">
-        <v>18725</v>
+        <v>18433</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3184,28 +3184,28 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01500742137432098</v>
+        <v>0.01810059603303671</v>
       </c>
       <c r="C94">
-        <v>225549</v>
+        <v>102737</v>
       </c>
       <c r="D94">
-        <v>309861</v>
+        <v>171425</v>
       </c>
       <c r="E94">
-        <v>84312</v>
+        <v>68688</v>
       </c>
       <c r="F94">
-        <v>0.003000363707542419</v>
+        <v>0.01446033304091543</v>
       </c>
       <c r="G94">
-        <v>15732</v>
+        <v>15673</v>
       </c>
       <c r="H94">
-        <v>34309</v>
+        <v>34398</v>
       </c>
       <c r="I94">
-        <v>18577</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3213,28 +3213,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.01568598672747612</v>
+        <v>0.01381506701000035</v>
       </c>
       <c r="C95">
-        <v>236159</v>
+        <v>104188</v>
       </c>
       <c r="D95">
-        <v>405817</v>
+        <v>174924</v>
       </c>
       <c r="E95">
-        <v>169658</v>
+        <v>70736</v>
       </c>
       <c r="F95">
-        <v>0.002295542508363724</v>
+        <v>0.01438631501514465</v>
       </c>
       <c r="G95">
-        <v>15404</v>
+        <v>15705</v>
       </c>
       <c r="H95">
-        <v>34105</v>
+        <v>34284</v>
       </c>
       <c r="I95">
-        <v>18701</v>
+        <v>18579</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3242,25 +3242,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0100652202963829</v>
+        <v>0.01803059503436089</v>
       </c>
       <c r="C96">
-        <v>93504</v>
+        <v>102231</v>
       </c>
       <c r="D96">
-        <v>165624</v>
+        <v>172375</v>
       </c>
       <c r="E96">
-        <v>72120</v>
+        <v>70144</v>
       </c>
       <c r="F96">
-        <v>0.003122847527265549</v>
+        <v>0.01027046295348555</v>
       </c>
       <c r="G96">
-        <v>15731</v>
+        <v>15897</v>
       </c>
       <c r="H96">
-        <v>34456</v>
+        <v>34622</v>
       </c>
       <c r="I96">
         <v>18725</v>
@@ -3271,28 +3271,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.008508183062076569</v>
+        <v>0.01368023210670799</v>
       </c>
       <c r="C97">
-        <v>112187</v>
+        <v>91891</v>
       </c>
       <c r="D97">
-        <v>186899</v>
+        <v>158083</v>
       </c>
       <c r="E97">
-        <v>74712</v>
+        <v>66192</v>
       </c>
       <c r="F97">
-        <v>0.003080226480960846</v>
+        <v>0.01896775199566036</v>
       </c>
       <c r="G97">
-        <v>15923</v>
+        <v>15673</v>
       </c>
       <c r="H97">
-        <v>34648</v>
+        <v>34252</v>
       </c>
       <c r="I97">
-        <v>18725</v>
+        <v>18579</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3300,25 +3300,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.006864842027425766</v>
+        <v>0.02585698000621051</v>
       </c>
       <c r="C98">
-        <v>108478</v>
+        <v>320630</v>
       </c>
       <c r="D98">
-        <v>182286</v>
+        <v>389414</v>
       </c>
       <c r="E98">
-        <v>73808</v>
+        <v>68784</v>
       </c>
       <c r="F98">
-        <v>0.002894993871450424</v>
+        <v>0.01283555396366864</v>
       </c>
       <c r="G98">
-        <v>15059</v>
+        <v>15609</v>
       </c>
       <c r="H98">
-        <v>33784</v>
+        <v>34334</v>
       </c>
       <c r="I98">
         <v>18725</v>
@@ -3329,28 +3329,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01715000346302986</v>
+        <v>0.01417306601069868</v>
       </c>
       <c r="C99">
-        <v>297979</v>
+        <v>103937</v>
       </c>
       <c r="D99">
-        <v>372395</v>
+        <v>173657</v>
       </c>
       <c r="E99">
-        <v>74416</v>
+        <v>69720</v>
       </c>
       <c r="F99">
-        <v>0.003050260245800018</v>
+        <v>0.02552487107459456</v>
       </c>
       <c r="G99">
-        <v>15155</v>
+        <v>16121</v>
       </c>
       <c r="H99">
-        <v>33880</v>
+        <v>34699</v>
       </c>
       <c r="I99">
-        <v>18725</v>
+        <v>18578</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3358,25 +3358,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.00556723028421402</v>
+        <v>0.01611782296095043</v>
       </c>
       <c r="C100">
-        <v>111429</v>
+        <v>208472</v>
       </c>
       <c r="D100">
-        <v>186333</v>
+        <v>277416</v>
       </c>
       <c r="E100">
-        <v>74904</v>
+        <v>68944</v>
       </c>
       <c r="F100">
-        <v>0.002826843410730362</v>
+        <v>0.01073435600847006</v>
       </c>
       <c r="G100">
-        <v>15411</v>
+        <v>15929</v>
       </c>
       <c r="H100">
-        <v>34136</v>
+        <v>34654</v>
       </c>
       <c r="I100">
         <v>18725</v>
@@ -3387,25 +3387,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.008186820894479752</v>
+        <v>0.01541889098007232</v>
       </c>
       <c r="C101">
-        <v>110381</v>
+        <v>201927</v>
       </c>
       <c r="D101">
-        <v>185061</v>
+        <v>269743</v>
       </c>
       <c r="E101">
-        <v>74680</v>
+        <v>67816</v>
       </c>
       <c r="F101">
-        <v>0.003215901553630829</v>
+        <v>0.01298557803966105</v>
       </c>
       <c r="G101">
-        <v>15475</v>
+        <v>15513</v>
       </c>
       <c r="H101">
-        <v>34200</v>
+        <v>34238</v>
       </c>
       <c r="I101">
         <v>18725</v>
